--- a/biology/Médecine/Liste_des_hôpitaux_et_hospices_de_Paris/Liste_des_hôpitaux_et_hospices_de_Paris.xlsx
+++ b/biology/Médecine/Liste_des_hôpitaux_et_hospices_de_Paris/Liste_des_hôpitaux_et_hospices_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page recense les hôpitaux, hospices, Hôtel-Dieu de Paris, existant ou ayant existé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A-B
-C
-Hôpital des Capucins (111, boulevard de Port-Royal), voir hôpital Cochin
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hôpital des Capucins (111, boulevard de Port-Royal), voir hôpital Cochin
 Hôpital de la Charité (2-4, rue Bonaparte-9 quai Malaquais)
 Hôpital de la Charité Chrétienne (3-9, rue Broca)
 Hôpital des Hospitalières de la Charité Notre-Dame (6, rue de Béarn, rue Roger-Verlomme)
-Hôpital des Cent-Filles (31-25, rue Censier), édifié en 1623, aussi appelé Hôpital Notre-Dame de la Miséricorde[3]
+Hôpital des Cent-Filles (31-25, rue Censier), édifié en 1623, aussi appelé Hôpital Notre-Dame de la Miséricorde
 Hôpital Claude-Bernard (10, avenue de la Porte-d'Aubervilliers, 120, boulevard Macdonald) Voir  historiqueHôpital Bichat-Claude-Bernard
 hôpital Claudius-Regaud, rue d'Ulm, devenu Hôpital Curie
 Hôpital des Cliniques (rue de l'Observance/15-21, rue de l'École-de-Médecine), démoli en 1878
@@ -530,19 +546,87 @@
 Hôpital de la Croix-de-la-Reine (142-164, rue Saint-Denis, 28 rue Greneta), devenu Hôpital-Hospice des Enfants Bleus en 1545
 Hôpital de la Croix-Rouge (8, place des Peupliers)
 Hôpital de la Croix Saint-Simon (18, rue de la Croix-Saint-Simon)
-Hôpital Curie (10-26, rue Lhomond)
-D
-Hôpital Robert-Debré (48, boulevard Sérurier)
+Hôpital Curie (10-26, rue Lhomond)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hôpital Robert-Debré (48, boulevard Sérurier)
 Hôpital Debrousse (148, rue de Bagnolet)
-Maison Dubois (200, rue du Faubourg-Saint-Denis), devenu Hôpital Fernand-Widal[4]
+Maison Dubois (200, rue du Faubourg-Saint-Denis), devenu Hôpital Fernand-Widal
 Hospice Debrousse
-Hospice Devillas
-E
-Hôpital de l'Enfant-Jésus (144, rue de Vaugirard, 149, rue de Sèvres)
+Hospice Devillas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hôpital de l'Enfant-Jésus (144, rue de Vaugirard, 149, rue de Sèvres)
 Hôpital des Enfants-Assistés (70bis-76, avenue Denfert-Rochereau)
 Hospice des Enfants-Assistés (70bis-76, avenue Denfert-Rochereau)
 Hôpital des Enfants-Bleus (142-164, rue Saint-Denis, 28 rue Greneta)
-Hospice des Enfants-Bleus (142-164, rue Saint-Denis, 28 rue Greneta)[5]
+Hospice des Enfants-Bleus (142-164, rue Saint-Denis, 28 rue Greneta)
 Hôpital des Enfants-Malades (144, rue de Vaugirard, 149 rue de Sèvres)
 Hôpital des Enfants-Rouges (90, rue des Archives)
 Hospice des Enfants-Rouges (90, rue des Archives)
@@ -551,39 +635,243 @@
 Hospice des Enfants-Trouvés (106-118, rue du Faubourg-Saint-Antoine)
 Hospice des Enfants-Trouvés-et-Orphelins (70bis-76, avenue Denfert-Rochereau)
 Hospice d'Enghien (Faubourg-Saint-Antoine anciennement commune de Reuilly), créé par la Duchesse de Bourbon en 1818
-Hôpital de l'Est (184, rue du Faubourg-Saint-Antoine)
-F
-Hôpital des Frères-de-Saint-Jean-de-Dieu (2-4, rue Bonaparte-9, quai Malaquais)
-Hôpital Franco-Néerlandais (rue Championnet)
-G
-Hôpital général de Paris
+Hôpital de l'Est (184, rue du Faubourg-Saint-Antoine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hôpital des Frères-de-Saint-Jean-de-Dieu (2-4, rue Bonaparte-9, quai Malaquais)
+Hôpital Franco-Néerlandais (rue Championnet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hôpital général de Paris
 Hôpital européen Georges-Pompidou (HEGP)
-Hôpital militaire du Gros-Caillou 106, rue Saint-Dominique, anciennement Hôpital des Gardes-Françaises[6]
-H
-Hospice des Haudriettes, rue des Haudriettes, fondé en 1386
+Hôpital militaire du Gros-Caillou 106, rue Saint-Dominique, anciennement Hôpital des Gardes-Françaises</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hospice des Haudriettes, rue des Haudriettes, fondé en 1386
 Hôpital Henri-Dunant
 Hôpital Hérold (1892-1988)
 Hôpital de l'Hôtel-Dieu
-Hôpital de l'Hôtel-Dieu-du-Patriarche, (3, rue Broca), fondé en 1559[7]
+Hôpital de l'Hôtel-Dieu-du-Patriarche, (3, rue Broca), fondé en 1559
 Hôpital de l'Humanité
-Hospice d'Humanité
-I
-Hôpital des Incurables-Femmes (rue de Sèvres), édifié de 1634 à 1639,dédié aux femmes à partir de 1801[8]
-Hospice des Incurables-Femmes rue de Sèvres), édifié de 1634 à 1639,dédié aux femmes à partir de 1801[8]
-Hôpital des Incurables-Hommes (rue du Faubourg Saint-Martin), couvent des Récollets, à partir de 1801[8]
-Hospice des Incurables-Hommes (rue du Faubourg Saint-Martin), couvent des Récollets, à partir de 1801[8]
-Hôpital International
-L
-Hôpital Laennec
+Hospice d'Humanité</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hôpital des Incurables-Femmes (rue de Sèvres), édifié de 1634 à 1639,dédié aux femmes à partir de 1801
+Hospice des Incurables-Femmes rue de Sèvres), édifié de 1634 à 1639,dédié aux femmes à partir de 1801
+Hôpital des Incurables-Hommes (rue du Faubourg Saint-Martin), couvent des Récollets, à partir de 1801
+Hospice des Incurables-Hommes (rue du Faubourg Saint-Martin), couvent des Récollets, à partir de 1801
+Hôpital International</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hôpital Laennec
 Hôpital La Rochefoucauld
 Hôpital Lariboisière
 Hôpital Léopold-Bellan
 Hospice Leprince
 Hospice Lesecq  (24, rue de Belzunce)
-Hôpital Louis-Philippe (boulevard Poissonnière), édifié à partir de 1846, renommé Hôpital de la République en 1848[9] voir Hôpital Lariboisière[10]
-Hôpital de Lourcine
-M
-Hôpital des Mariniers, voir hôpital Broussais, ouvert en 1883[11]
+Hôpital Louis-Philippe (boulevard Poissonnière), édifié à partir de 1846, renommé Hôpital de la République en 1848 voir Hôpital Lariboisière
+Hôpital de Lourcine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hôpital des Mariniers, voir hôpital Broussais, ouvert en 1883
 Hôpital Marmottan
 Hôpital de la Maternité
 Hospice de la Maternité
@@ -592,35 +880,205 @@
 Hôpital du Midi (111, boulevard de Port-Royal), ancien nom de l'hôpital Cochin
 Hôpital de la Miséricorde (31-25, rue Censier)
 Hôpital de la miséricorde de Jésus
-Hospice national de Montrouge
-N
-Hôpital Necker-Enfants malades
-Hôpital du Nord voir Hôpital Lariboisière[10]
+Hospice national de Montrouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Hôpital Necker-Enfants malades
+Hôpital du Nord voir Hôpital Lariboisière
 Hospice du Nord
 Hôpital Notre-Dame de Bon-Secours
-Hôpital Notre-Dame de la Miséricorde, édifié en 1623, aussi appelé Hôpital des Cent-Filles[3]
-P
-Hôpital de la paroisse Saint-Jacques-du-Haut-Pas (111, boulevard de Port-Royal)
+Hôpital Notre-Dame de la Miséricorde, édifié en 1623, aussi appelé Hôpital des Cent-Filles</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hôpital de la paroisse Saint-Jacques-du-Haut-Pas (111, boulevard de Port-Royal)
 Hôpital Pasteur
 Hôtel-Dieu du Patriarche (3-9, rue Broca)
 Hôpital Péan (11, rue de la Santé), créé en 1893 par Jules Péan
 Hospice du Petit-Saint-Antoine
-Hospice des Petits-Ménages, (rue de Sèvres), déplacé à Issy en 1863[12]
+Hospice des Petits-Ménages, (rue de Sèvres), déplacé à Issy en 1863
 Hôpital des Petites-Maisons
 Hôpital de la Pitié
 Hôpital de la place du Danube, voir hôpital Hérold
-Hôpital du Panthéon (18, rue Lhomond)
-Q
-Hôpital des Quinze-Vingts
-Hospice des Quinze-Vingts
-R
-Hôpital de la République, voir Hôpital Lariboisière[10]
+Hôpital du Panthéon (18, rue Lhomond)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hôpital des Quinze-Vingts
+Hospice des Quinze-Vingts</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hôpital de la République, voir Hôpital Lariboisière
 Hôpital Ricord (111, boulevard de Port-Royal)
 Hospice de la Rochefoucauld
 Hôpital Rothschild
-Hôpital du Roule, devenu Hôpital de Beaujon en 1803
-S
-Hôpital Saint-Anastase
+Hôpital du Roule, devenu Hôpital de Beaujon en 1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hôpital Saint-Anastase
 Hôpital Saint-Antoine
 Hôpital du Saint-Esprit
 Hospice du Saint-Esprit
@@ -656,24 +1114,160 @@
 Hôpital du Saint-Sépulcre
 Hôpital de la Salpêtrière
 Hospice de Santé (355-371, rue de Vaugirard)
-Hôpital Suzanne-Pérousse
-T
-Hôpital Tarnier
+Hôpital Suzanne-Pérousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hôpital Tarnier
 Hospice des Teigneux (rue de la Chaise), dépendant des Petites Maisons
 Hôpital Tenon (4, rue de la Chine)
 Hôpital des Tournelles (6, rue de Béarn, rue Roger-Verlomme)
 Hôpital de la Trinité (142-164, rue Saint-Denis, 28 rue Greneta)
-Hôpital Trousseau
-U
-Hospice de l'Unité, nom de l'hôpital de la Charité pendant la Révolution[13]
-V
-Hôpital du Val-de-Grâce
+Hôpital Trousseau</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hospice de l'Unité, nom de l'hôpital de la Charité pendant la Révolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hôpital du Val-de-Grâce
 Hôpital Vaugirard (1780-1792) (355-371, rue de Vaugirard)
 Hôpital Vaugirard - Gabriel-Pallez (10, rue Vaugelas)
 Hôpital des Vénériens, 14e
-Hôpital Villemin
-W
-Hôpital Fernand-Widal</t>
+Hôpital Villemin</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_hôpitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_h%C3%B4pitaux_et_hospices_de_Paris</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hôpital Fernand-Widal</t>
         </is>
       </c>
     </row>
